--- a/doc/examID채번 경우의 수.xlsx
+++ b/doc/examID채번 경우의 수.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Handyground\Workspace\git\bms-fe\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5521F14D-ADC4-4CB2-B318-A63ADEC72E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B8112D-C178-4067-9CC4-47A412D64199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19470" yWindow="4575" windowWidth="32610" windowHeight="19065" xr2:uid="{6E60B53E-952F-47E4-A374-90354758CEED}"/>
+    <workbookView xWindow="63345" yWindow="6705" windowWidth="27675" windowHeight="19065" xr2:uid="{6E60B53E-952F-47E4-A374-90354758CEED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +188,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,7 +270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,28 +280,40 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,49 +653,49 @@
   <dimension ref="B2:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="32.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="15.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="4" customWidth="1"/>
-    <col min="7" max="12" width="9" style="4"/>
-    <col min="13" max="13" width="11.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.75" style="4" customWidth="1"/>
-    <col min="15" max="15" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="15.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="3" customWidth="1"/>
+    <col min="7" max="12" width="9" style="3"/>
+    <col min="13" max="13" width="11.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -689,20 +713,20 @@
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -717,29 +741,29 @@
       <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="5" t="s">
+      <c r="J4" s="7"/>
+      <c r="K4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="5" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="5" t="s">
+      <c r="N4" s="7"/>
+      <c r="O4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="6"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -788,10 +812,10 @@
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
@@ -801,41 +825,39 @@
       <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5" t="s">
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="6"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="10"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="7"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -864,17 +886,17 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="K7:P7"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="K3:P3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="G2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
